--- a/assets/xlsx/模板.xlsx
+++ b/assets/xlsx/模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17490" windowHeight="8670"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>学校</t>
   </si>
@@ -47,6 +47,33 @@
   </si>
   <si>
     <t>主办单位、机构、部门</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>某某学院</t>
+  </si>
+  <si>
+    <t>信息学院</t>
+  </si>
+  <si>
+    <t>软件技术</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>校园软件大赛</t>
+  </si>
+  <si>
+    <t>二等奖、创新奖</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>某某部门</t>
   </si>
 </sst>
 </file>
@@ -688,12 +715,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,14 +1116,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="5" max="5" width="9.375"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="21.625" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
@@ -1093,208 +1133,261 @@
     <col min="12" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="4">
+        <v>12322222</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43894</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/xlsx/模板.xlsx
+++ b/assets/xlsx/模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>学校</t>
   </si>
@@ -70,21 +70,31 @@
     <t>二等奖、创新奖</t>
   </si>
   <si>
+    <t>郭老师</t>
+  </si>
+  <si>
+    <t>某某部门</t>
+  </si>
+  <si>
     <t>李四</t>
   </si>
   <si>
-    <t>某某部门</t>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>赵六</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -717,20 +727,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,13 +1127,13 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="9.375"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="7" max="7" width="14.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.625" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
@@ -1134,266 +1142,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>2017</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>12322222</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5">
-        <v>43894</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="6">
+        <v>44958</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="5">
+        <v>12322223</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
+        <v>44960</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="5">
+        <v>12322224</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6">
+        <v>44961</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="E5" s="5">
+        <v>12322225</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6">
+        <v>44962</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 F1 H1:K1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>